--- a/data/moonlight.xlsx
+++ b/data/moonlight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karam\Desktop\exel to json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D24A86-0190-4A69-AFE4-CF0881A7C15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17BDE29-0B6F-415B-913E-11563065B445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +426,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,26 +506,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -531,6 +530,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -880,49 +893,49 @@
   <cols>
     <col min="1" max="1" width="25.69921875" customWidth="1"/>
     <col min="2" max="2" width="74.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -933,24 +946,24 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -961,24 +974,24 @@
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -989,24 +1002,24 @@
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1017,24 +1030,24 @@
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1045,24 +1058,24 @@
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1073,24 +1086,24 @@
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1101,24 +1114,24 @@
       <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1129,24 +1142,24 @@
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1157,24 +1170,24 @@
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1185,24 +1198,24 @@
       <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1213,24 +1226,24 @@
       <c r="B24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1241,24 +1254,24 @@
       <c r="B26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1269,24 +1282,24 @@
       <c r="B28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1297,24 +1310,24 @@
       <c r="B30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1325,24 +1338,24 @@
       <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1353,24 +1366,24 @@
       <c r="B34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1381,24 +1394,24 @@
       <c r="B36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1409,24 +1422,24 @@
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1437,24 +1450,24 @@
       <c r="B40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1465,24 +1478,24 @@
       <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="13" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1493,24 +1506,24 @@
       <c r="B44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="B45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="13" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1521,24 +1534,24 @@
       <c r="B46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="13" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1549,24 +1562,24 @@
       <c r="B48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="B49" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="13" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1577,24 +1590,24 @@
       <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="7" t="s">
+      <c r="B51" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1605,24 +1618,24 @@
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="16" t="s">
         <v>109</v>
       </c>
     </row>
